--- a/data/raw_data/NC/pop_est_2010-2019_nc.xlsx
+++ b/data/raw_data/NC/pop_est_2010-2019_nc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iulia\Documents\NSS\projects\capstone\data\NC\raw_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iulia\Documents\NSS\projects\capstone\data\raw_data\NC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A763AAE3-D914-4601-9414-637893AA1A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A48D97B-F9CB-49C1-84AD-C8CD80A8F33A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7725" yWindow="0" windowWidth="19080" windowHeight="15480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="orig" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,19 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">orig!$A$2:$M$110</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">orig!$A:$A,orig!$2:$2</definedName>
   </definedNames>
-  <calcPr calcId="0" iterate="1" iterateCount="1000" calcOnSave="0"/>
+  <calcPr calcId="191029" iterate="1" iterateCount="1000" calcOnSave="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1567,304 +1579,304 @@
     <t>County</t>
   </si>
   <si>
-    <t>Alamance County</t>
-  </si>
-  <si>
-    <t>Alexander County</t>
-  </si>
-  <si>
-    <t>Alleghany County</t>
-  </si>
-  <si>
-    <t>Anson County</t>
-  </si>
-  <si>
-    <t>Ashe County</t>
-  </si>
-  <si>
-    <t>Avery County</t>
-  </si>
-  <si>
-    <t>Beaufort County</t>
-  </si>
-  <si>
-    <t>Bertie County</t>
-  </si>
-  <si>
-    <t>Bladen County</t>
-  </si>
-  <si>
-    <t>Brunswick County</t>
-  </si>
-  <si>
-    <t>Buncombe County</t>
-  </si>
-  <si>
-    <t>Burke County</t>
-  </si>
-  <si>
-    <t>Cabarrus County</t>
-  </si>
-  <si>
-    <t>Caldwell County</t>
-  </si>
-  <si>
-    <t>Camden County</t>
-  </si>
-  <si>
-    <t>Carteret County</t>
-  </si>
-  <si>
-    <t>Caswell County</t>
-  </si>
-  <si>
-    <t>Catawba County</t>
-  </si>
-  <si>
-    <t>Chatham County</t>
-  </si>
-  <si>
-    <t>Cherokee County</t>
-  </si>
-  <si>
-    <t>Chowan County</t>
-  </si>
-  <si>
-    <t>Clay County</t>
-  </si>
-  <si>
-    <t>Cleveland County</t>
-  </si>
-  <si>
-    <t>Columbus County</t>
-  </si>
-  <si>
-    <t>Craven County</t>
-  </si>
-  <si>
-    <t>Cumberland County</t>
-  </si>
-  <si>
-    <t>Currituck County</t>
-  </si>
-  <si>
-    <t>Dare County</t>
-  </si>
-  <si>
-    <t>Davidson County</t>
-  </si>
-  <si>
-    <t>Davie County</t>
-  </si>
-  <si>
-    <t>Duplin County</t>
-  </si>
-  <si>
-    <t>Durham County</t>
-  </si>
-  <si>
-    <t>Edgecombe County</t>
-  </si>
-  <si>
-    <t>Forsyth County</t>
-  </si>
-  <si>
-    <t>Franklin County</t>
-  </si>
-  <si>
-    <t>Gaston County</t>
-  </si>
-  <si>
-    <t>Gates County</t>
-  </si>
-  <si>
-    <t>Graham County</t>
-  </si>
-  <si>
-    <t>Granville County</t>
-  </si>
-  <si>
-    <t>Greene County</t>
-  </si>
-  <si>
-    <t>Guilford County</t>
-  </si>
-  <si>
-    <t>Halifax County</t>
-  </si>
-  <si>
-    <t>Harnett County</t>
-  </si>
-  <si>
-    <t>Haywood County</t>
-  </si>
-  <si>
-    <t>Henderson County</t>
-  </si>
-  <si>
-    <t>Hertford County</t>
-  </si>
-  <si>
-    <t>Hoke County</t>
-  </si>
-  <si>
-    <t>Hyde County</t>
-  </si>
-  <si>
-    <t>Iredell County</t>
-  </si>
-  <si>
-    <t>Jackson County</t>
-  </si>
-  <si>
-    <t>Johnston County</t>
-  </si>
-  <si>
-    <t>Jones County</t>
-  </si>
-  <si>
-    <t>Lee County</t>
-  </si>
-  <si>
-    <t>Lenoir County</t>
-  </si>
-  <si>
-    <t>Lincoln County</t>
-  </si>
-  <si>
-    <t>McDowell County</t>
-  </si>
-  <si>
-    <t>Macon County</t>
-  </si>
-  <si>
-    <t>Madison County</t>
-  </si>
-  <si>
-    <t>Martin County</t>
-  </si>
-  <si>
-    <t>Mecklenburg County</t>
-  </si>
-  <si>
-    <t>Mitchell County</t>
-  </si>
-  <si>
-    <t>Montgomery County</t>
-  </si>
-  <si>
-    <t>Moore County</t>
-  </si>
-  <si>
-    <t>Nash County</t>
-  </si>
-  <si>
-    <t>New Hanover County</t>
-  </si>
-  <si>
-    <t>Northampton County</t>
-  </si>
-  <si>
-    <t>Onslow County</t>
-  </si>
-  <si>
-    <t>Orange County</t>
-  </si>
-  <si>
-    <t>Pamlico County</t>
-  </si>
-  <si>
-    <t>Pasquotank County</t>
-  </si>
-  <si>
-    <t>Pender County</t>
-  </si>
-  <si>
-    <t>Perquimans County</t>
-  </si>
-  <si>
-    <t>Person County</t>
-  </si>
-  <si>
-    <t>Pitt County</t>
-  </si>
-  <si>
-    <t>Polk County</t>
-  </si>
-  <si>
-    <t>Randolph County</t>
-  </si>
-  <si>
-    <t>Richmond County</t>
-  </si>
-  <si>
-    <t>Robeson County</t>
-  </si>
-  <si>
-    <t>Rockingham County</t>
-  </si>
-  <si>
-    <t>Rowan County</t>
-  </si>
-  <si>
-    <t>Rutherford County</t>
-  </si>
-  <si>
-    <t>Sampson County</t>
-  </si>
-  <si>
-    <t>Scotland County</t>
-  </si>
-  <si>
-    <t>Stanly County</t>
-  </si>
-  <si>
-    <t>Stokes County</t>
-  </si>
-  <si>
-    <t>Surry County</t>
-  </si>
-  <si>
-    <t>Swain County</t>
-  </si>
-  <si>
-    <t>Transylvania County</t>
-  </si>
-  <si>
-    <t>Tyrrell County</t>
-  </si>
-  <si>
-    <t>Union County</t>
-  </si>
-  <si>
-    <t>Vance County</t>
-  </si>
-  <si>
-    <t>Wake County</t>
-  </si>
-  <si>
-    <t>Warren County</t>
-  </si>
-  <si>
-    <t>Washington County</t>
-  </si>
-  <si>
-    <t>Watauga County</t>
-  </si>
-  <si>
-    <t>Wayne County</t>
-  </si>
-  <si>
-    <t>Wilkes County</t>
-  </si>
-  <si>
-    <t>Wilson County</t>
-  </si>
-  <si>
-    <t>Yadkin County</t>
-  </si>
-  <si>
-    <t>Yancey County</t>
+    <t>Alamance</t>
+  </si>
+  <si>
+    <t>Alexander</t>
+  </si>
+  <si>
+    <t>Alleghany</t>
+  </si>
+  <si>
+    <t>Anson</t>
+  </si>
+  <si>
+    <t>Ashe</t>
+  </si>
+  <si>
+    <t>Avery</t>
+  </si>
+  <si>
+    <t>Beaufort</t>
+  </si>
+  <si>
+    <t>Bertie</t>
+  </si>
+  <si>
+    <t>Bladen</t>
+  </si>
+  <si>
+    <t>Brunswick</t>
+  </si>
+  <si>
+    <t>Buncombe</t>
+  </si>
+  <si>
+    <t>Burke</t>
+  </si>
+  <si>
+    <t>Cabarrus</t>
+  </si>
+  <si>
+    <t>Caldwell</t>
+  </si>
+  <si>
+    <t>Camden</t>
+  </si>
+  <si>
+    <t>Carteret</t>
+  </si>
+  <si>
+    <t>Caswell</t>
+  </si>
+  <si>
+    <t>Catawba</t>
+  </si>
+  <si>
+    <t>Chatham</t>
+  </si>
+  <si>
+    <t>Cherokee</t>
+  </si>
+  <si>
+    <t>Chowan</t>
+  </si>
+  <si>
+    <t>Clay</t>
+  </si>
+  <si>
+    <t>Cleveland</t>
+  </si>
+  <si>
+    <t>Columbus</t>
+  </si>
+  <si>
+    <t>Craven</t>
+  </si>
+  <si>
+    <t>Cumberland</t>
+  </si>
+  <si>
+    <t>Currituck</t>
+  </si>
+  <si>
+    <t>Dare</t>
+  </si>
+  <si>
+    <t>Davidson</t>
+  </si>
+  <si>
+    <t>Davie</t>
+  </si>
+  <si>
+    <t>Duplin</t>
+  </si>
+  <si>
+    <t>Durham</t>
+  </si>
+  <si>
+    <t>Edgecombe</t>
+  </si>
+  <si>
+    <t>Forsyth</t>
+  </si>
+  <si>
+    <t>Franklin</t>
+  </si>
+  <si>
+    <t>Gaston</t>
+  </si>
+  <si>
+    <t>Gates</t>
+  </si>
+  <si>
+    <t>Graham</t>
+  </si>
+  <si>
+    <t>Granville</t>
+  </si>
+  <si>
+    <t>Greene</t>
+  </si>
+  <si>
+    <t>Guilford</t>
+  </si>
+  <si>
+    <t>Halifax</t>
+  </si>
+  <si>
+    <t>Harnett</t>
+  </si>
+  <si>
+    <t>Haywood</t>
+  </si>
+  <si>
+    <t>Henderson</t>
+  </si>
+  <si>
+    <t>Hertford</t>
+  </si>
+  <si>
+    <t>Hoke</t>
+  </si>
+  <si>
+    <t>Hyde</t>
+  </si>
+  <si>
+    <t>Iredell</t>
+  </si>
+  <si>
+    <t>Jackson</t>
+  </si>
+  <si>
+    <t>Johnston</t>
+  </si>
+  <si>
+    <t>Jones</t>
+  </si>
+  <si>
+    <t>Lee</t>
+  </si>
+  <si>
+    <t>Lenoir</t>
+  </si>
+  <si>
+    <t>Lincoln</t>
+  </si>
+  <si>
+    <t>McDowell</t>
+  </si>
+  <si>
+    <t>Macon</t>
+  </si>
+  <si>
+    <t>Madison</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>Mecklenburg</t>
+  </si>
+  <si>
+    <t>Mitchell</t>
+  </si>
+  <si>
+    <t>Montgomery</t>
+  </si>
+  <si>
+    <t>Moore</t>
+  </si>
+  <si>
+    <t>Nash</t>
+  </si>
+  <si>
+    <t>New Hanover</t>
+  </si>
+  <si>
+    <t>Northampton</t>
+  </si>
+  <si>
+    <t>Onslow</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>Pamlico</t>
+  </si>
+  <si>
+    <t>Pasquotank</t>
+  </si>
+  <si>
+    <t>Pender</t>
+  </si>
+  <si>
+    <t>Perquimans</t>
+  </si>
+  <si>
+    <t>Person</t>
+  </si>
+  <si>
+    <t>Pitt</t>
+  </si>
+  <si>
+    <t>Polk</t>
+  </si>
+  <si>
+    <t>Randolph</t>
+  </si>
+  <si>
+    <t>Richmond</t>
+  </si>
+  <si>
+    <t>Robeson</t>
+  </si>
+  <si>
+    <t>Rockingham</t>
+  </si>
+  <si>
+    <t>Rowan</t>
+  </si>
+  <si>
+    <t>Rutherford</t>
+  </si>
+  <si>
+    <t>Sampson</t>
+  </si>
+  <si>
+    <t>Scotland</t>
+  </si>
+  <si>
+    <t>Stanly</t>
+  </si>
+  <si>
+    <t>Stokes</t>
+  </si>
+  <si>
+    <t>Surry</t>
+  </si>
+  <si>
+    <t>Swain</t>
+  </si>
+  <si>
+    <t>Transylvania</t>
+  </si>
+  <si>
+    <t>Tyrrell</t>
+  </si>
+  <si>
+    <t>Union</t>
+  </si>
+  <si>
+    <t>Vance</t>
+  </si>
+  <si>
+    <t>Wake</t>
+  </si>
+  <si>
+    <t>Warren</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>Watauga</t>
+  </si>
+  <si>
+    <t>Wayne</t>
+  </si>
+  <si>
+    <t>Wilkes</t>
+  </si>
+  <si>
+    <t>Wilson</t>
+  </si>
+  <si>
+    <t>Yadkin</t>
+  </si>
+  <si>
+    <t>Yancey</t>
   </si>
 </sst>
 </file>
@@ -6914,7 +6926,7 @@
   <dimension ref="A1:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/raw_data/NC/pop_est_2010-2019_nc.xlsx
+++ b/data/raw_data/NC/pop_est_2010-2019_nc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iulia\Documents\NSS\projects\capstone\data\raw_data\NC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A48D97B-F9CB-49C1-84AD-C8CD80A8F33A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{773447FE-CE97-4CA0-A127-1968C78B6495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7725" yWindow="0" windowWidth="19080" windowHeight="15480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="orig" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="213">
   <si>
     <t>North Carolina</t>
   </si>
@@ -6923,10 +6923,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{886C140D-4A13-45CE-BE5F-93B8CAA3DB0F}">
-  <dimension ref="A1:M102"/>
+  <dimension ref="A1:M101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:N1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="A111" sqref="A111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11075,47 +11075,6 @@
         <v>18069</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>0</v>
-      </c>
-      <c r="B102">
-        <v>9535483</v>
-      </c>
-      <c r="C102">
-        <v>9535751</v>
-      </c>
-      <c r="D102">
-        <v>9574323</v>
-      </c>
-      <c r="E102">
-        <v>9657592</v>
-      </c>
-      <c r="F102">
-        <v>9749476</v>
-      </c>
-      <c r="G102">
-        <v>9843336</v>
-      </c>
-      <c r="H102">
-        <v>9932887</v>
-      </c>
-      <c r="I102">
-        <v>10031646</v>
-      </c>
-      <c r="J102">
-        <v>10154788</v>
-      </c>
-      <c r="K102">
-        <v>10268233</v>
-      </c>
-      <c r="L102">
-        <v>10381615</v>
-      </c>
-      <c r="M102">
-        <v>10488084</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
